--- a/document/交易大盘数据库设计表@20180227.xlsx
+++ b/document/交易大盘数据库设计表@20180227.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iqmkj_idea\jydp\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\GitLab\jydp\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="0" windowWidth="22944" windowHeight="10044"/>
+    <workbookView xWindow="1230" yWindow="0" windowWidth="22950" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="252">
   <si>
     <t>user_tab</t>
   </si>
@@ -876,12 +876,20 @@
     <t>美元id=999</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>currencyName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -927,6 +935,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1060,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1177,6 +1192,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,10 +1225,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,25 +1509,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L73"/>
+  <dimension ref="A2:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="57.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.375" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1512,14 +1536,14 @@
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1603,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1627,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1625,7 +1649,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1671,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1665,13 +1689,13 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="40" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1689,11 +1713,11 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1745,7 +1769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1771,7 +1795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1791,7 +1815,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -1803,23 +1827,23 @@
       <c r="J14" s="27"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1851,7 +1875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1879,7 +1903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -1905,7 +1929,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
@@ -1929,7 +1953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1951,7 +1975,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1971,7 +1995,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
@@ -1983,23 +2007,23 @@
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
@@ -2031,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
@@ -2059,7 +2083,7 @@
       <c r="J25" s="36"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
@@ -2083,7 +2107,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
@@ -2105,7 +2129,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>56</v>
       </c>
@@ -2127,7 +2151,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>58</v>
       </c>
@@ -2149,7 +2173,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>60</v>
       </c>
@@ -2171,7 +2195,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="6" t="s">
         <v>62</v>
       </c>
@@ -2199,7 +2223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>65</v>
       </c>
@@ -2219,7 +2243,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="37"/>
     </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
         <v>66</v>
       </c>
@@ -2237,7 +2261,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
@@ -2257,7 +2281,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
         <v>69</v>
       </c>
@@ -2273,7 +2297,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
@@ -2305,7 +2329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
@@ -2333,7 +2357,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
         <v>72</v>
       </c>
@@ -2357,7 +2381,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="6" t="s">
         <v>74</v>
       </c>
@@ -2379,7 +2403,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
@@ -2399,24 +2423,24 @@
       <c r="J41" s="8"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-    </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+    </row>
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="29" t="s">
         <v>2</v>
       </c>
@@ -2448,7 +2472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="31" t="s">
         <v>79</v>
       </c>
@@ -2476,7 +2500,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="31" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2524,7 @@
       <c r="J46" s="32"/>
       <c r="K46" s="38"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="31" t="s">
         <v>82</v>
       </c>
@@ -2524,7 +2548,7 @@
       <c r="J47" s="32"/>
       <c r="K47" s="33"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="31" t="s">
         <v>84</v>
       </c>
@@ -2548,36 +2572,34 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="32" t="s">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="53">
+        <v>32</v>
+      </c>
+      <c r="F49" s="53" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
-      <c r="J49" s="32">
-        <v>0</v>
-      </c>
+      <c r="J49" s="32"/>
       <c r="K49" s="33"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>28</v>
@@ -2596,18 +2618,18 @@
       </c>
       <c r="K50" s="33"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="31" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="32">
-        <v>200</v>
+        <v>28</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>15</v>
@@ -2615,165 +2637,167 @@
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="32">
+        <v>0</v>
+      </c>
+      <c r="K51" s="33"/>
+    </row>
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="31" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="E52" s="32">
+        <v>200</v>
+      </c>
       <c r="F52" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="34"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-    </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="K52" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="34"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+    </row>
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C55" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="46"/>
-    </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="48"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E57" s="8">
         <v>18</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+      <c r="F57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>11</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="8">
-        <v>16</v>
-      </c>
       <c r="F58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="6" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>15</v>
@@ -2784,18 +2808,18 @@
       <c r="J59" s="8"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="8">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>15</v>
@@ -2806,84 +2830,86 @@
       <c r="J60" s="8"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="8">
+        <v>400</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="19"/>
-    </row>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="19"/>
+    </row>
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>1</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8">
-        <v>1</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="8">
-        <v>200</v>
-      </c>
-      <c r="F63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="8">
+        <v>1</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="8">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -2892,17 +2918,19 @@
       <c r="J64" s="8"/>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="E65" s="8">
+        <v>16</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -2910,84 +2938,78 @@
       <c r="J65" s="8"/>
       <c r="K65" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
+    <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C68" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-    </row>
-    <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+    </row>
+    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="8">
-        <v>11</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>14</v>
@@ -2999,23 +3021,25 @@
         <v>15</v>
       </c>
       <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="6" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E71" s="8">
+        <v>11</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>15</v>
@@ -3023,17 +3047,15 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="8">
-        <v>0</v>
-      </c>
+      <c r="J71" s="8"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>28</v>
@@ -3052,35 +3074,59 @@
       </c>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="6" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F73" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="J73" s="8">
+        <v>0</v>
+      </c>
       <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C67:K67"/>
+    <mergeCell ref="C68:K68"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.749305555555556" bottom="0.749305555555556" header="0.29930555555555599" footer="0.29930555555555599"/>
@@ -3096,15 +3142,15 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="47.6640625" customWidth="1"/>
+    <col min="4" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>113</v>
       </c>
@@ -3120,7 +3166,7 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -3152,7 +3198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>115</v>
       </c>
@@ -3178,7 +3224,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>117</v>
       </c>
@@ -3200,7 +3246,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>119</v>
       </c>
@@ -3224,7 +3270,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>122</v>
       </c>
@@ -3248,7 +3294,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
@@ -3268,7 +3314,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3280,23 +3326,23 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
@@ -3328,7 +3374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>127</v>
       </c>
@@ -3356,7 +3402,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>129</v>
       </c>
@@ -3378,7 +3424,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
@@ -3398,7 +3444,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3410,7 +3456,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
         <v>131</v>
       </c>
@@ -3426,7 +3472,7 @@
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +3504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>127</v>
       </c>
@@ -3484,7 +3530,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" s="23" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" s="23" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>133</v>
       </c>
@@ -3506,7 +3552,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -3526,7 +3572,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3538,7 +3584,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>137</v>
       </c>
@@ -3554,7 +3600,7 @@
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -3586,7 +3632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>139</v>
       </c>
@@ -3614,7 +3660,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>104</v>
       </c>
@@ -3638,7 +3684,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>143</v>
       </c>
@@ -3658,7 +3704,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
@@ -3680,7 +3726,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>127</v>
       </c>
@@ -3702,7 +3748,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -3728,7 +3774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
@@ -3748,7 +3794,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3760,23 +3806,23 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-    </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
@@ -3808,7 +3854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
@@ -3836,7 +3882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>147</v>
       </c>
@@ -3858,7 +3904,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>104</v>
       </c>
@@ -3880,7 +3926,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
@@ -3902,7 +3948,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
         <v>49</v>
       </c>
@@ -3922,7 +3968,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3934,23 +3980,23 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
@@ -3982,7 +4028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="6" t="s">
         <v>53</v>
       </c>
@@ -4010,7 +4056,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
         <v>12</v>
       </c>
@@ -4032,7 +4078,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>16</v>
       </c>
@@ -4054,7 +4100,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6" t="s">
         <v>151</v>
       </c>
@@ -4078,7 +4124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="6" t="s">
         <v>26</v>
       </c>
@@ -4104,7 +4150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
         <v>154</v>
       </c>
@@ -4124,7 +4170,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
@@ -4146,7 +4192,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
         <v>139</v>
       </c>
@@ -4168,7 +4214,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>104</v>
       </c>
@@ -4190,7 +4236,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
         <v>37</v>
       </c>
@@ -4229,19 +4275,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="47.6640625" customWidth="1"/>
+    <col min="4" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>156</v>
       </c>
@@ -4257,7 +4303,7 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4289,7 +4335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>84</v>
       </c>
@@ -4317,7 +4363,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>158</v>
       </c>
@@ -4339,7 +4385,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>160</v>
       </c>
@@ -4361,7 +4407,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
@@ -4381,7 +4427,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>162</v>
       </c>
@@ -4390,14 +4436,14 @@
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -4429,7 +4475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>164</v>
       </c>
@@ -4457,7 +4503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -4481,7 +4527,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>165</v>
       </c>
@@ -4507,7 +4553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>84</v>
       </c>
@@ -4529,7 +4575,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>160</v>
       </c>
@@ -4553,7 +4599,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>168</v>
       </c>
@@ -4577,7 +4623,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>170</v>
       </c>
@@ -4601,7 +4647,7 @@
       </c>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>172</v>
       </c>
@@ -4625,7 +4671,7 @@
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>174</v>
       </c>
@@ -4651,7 +4697,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>65</v>
       </c>
@@ -4671,7 +4717,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>177</v>
       </c>
@@ -4689,7 +4735,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
@@ -4709,7 +4755,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
         <v>179</v>
       </c>
@@ -4718,14 +4764,14 @@
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
       <c r="K24" s="39"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -4757,7 +4803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>79</v>
       </c>
@@ -4787,7 +4833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>164</v>
       </c>
@@ -4811,7 +4857,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
@@ -4835,7 +4881,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>165</v>
       </c>
@@ -4861,7 +4907,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>84</v>
       </c>
@@ -4883,7 +4929,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="6" t="s">
         <v>160</v>
       </c>
@@ -4907,7 +4953,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>183</v>
       </c>
@@ -4931,7 +4977,7 @@
       </c>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
         <v>110</v>
       </c>
@@ -4955,7 +5001,7 @@
       </c>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>185</v>
       </c>
@@ -4979,7 +5025,7 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>65</v>
       </c>
@@ -4999,7 +5045,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
@@ -5019,7 +5065,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9" t="s">
         <v>187</v>
       </c>
@@ -5028,14 +5074,14 @@
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
@@ -5067,7 +5113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="6" t="s">
         <v>79</v>
       </c>
@@ -5097,7 +5143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="6" t="s">
         <v>165</v>
       </c>
@@ -5123,7 +5169,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="6" t="s">
         <v>84</v>
       </c>
@@ -5145,7 +5191,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
         <v>160</v>
       </c>
@@ -5169,7 +5215,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>110</v>
       </c>
@@ -5193,7 +5239,7 @@
       </c>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6" t="s">
         <v>185</v>
       </c>
@@ -5217,7 +5263,7 @@
       </c>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="6" t="s">
         <v>104</v>
       </c>
@@ -5239,7 +5285,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
         <v>47</v>
       </c>
@@ -5261,7 +5307,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
         <v>189</v>
       </c>
@@ -5287,7 +5333,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
         <v>65</v>
       </c>
@@ -5307,7 +5353,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>192</v>
       </c>
@@ -5327,7 +5373,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
         <v>37</v>
       </c>
@@ -5347,7 +5393,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="9" t="s">
         <v>194</v>
       </c>
@@ -5356,14 +5402,14 @@
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
-      <c r="F53" s="40"/>
+      <c r="F53" s="42"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
     </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
@@ -5395,7 +5441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="6" t="s">
         <v>79</v>
       </c>
@@ -5423,7 +5469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="6" t="s">
         <v>165</v>
       </c>
@@ -5447,7 +5493,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="6" t="s">
         <v>84</v>
       </c>
@@ -5469,7 +5515,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
         <v>183</v>
       </c>
@@ -5493,7 +5539,7 @@
       </c>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="6" t="s">
         <v>110</v>
       </c>
@@ -5517,7 +5563,7 @@
       </c>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
         <v>185</v>
       </c>
@@ -5541,7 +5587,7 @@
       </c>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
         <v>37</v>
       </c>
@@ -5573,7 +5619,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.749305555555556" bottom="0.749305555555556" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5585,35 +5631,35 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="10" width="8.375" customWidth="1"/>
     <col min="11" max="11" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-    </row>
-    <row r="3" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -5645,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
@@ -5673,7 +5719,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>198</v>
       </c>
@@ -5697,7 +5743,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>199</v>
       </c>
@@ -5719,7 +5765,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
@@ -5741,7 +5787,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
@@ -5761,7 +5807,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>201</v>
       </c>
@@ -5787,7 +5833,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>204</v>
       </c>
@@ -5805,7 +5851,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -5817,7 +5863,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
         <v>206</v>
       </c>
@@ -5833,7 +5879,7 @@
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -5865,7 +5911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
@@ -5893,7 +5939,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>208</v>
       </c>
@@ -5915,7 +5961,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>210</v>
       </c>
@@ -5937,7 +5983,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>212</v>
       </c>
@@ -5957,7 +6003,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>214</v>
       </c>
@@ -5977,7 +6023,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10" t="s">
         <v>216</v>
       </c>
@@ -5999,7 +6045,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -6019,7 +6065,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6029,7 +6075,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>218</v>
       </c>
@@ -6045,7 +6091,7 @@
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -6077,7 +6123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
@@ -6105,7 +6151,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>220</v>
       </c>
@@ -6127,7 +6173,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>222</v>
       </c>
@@ -6149,7 +6195,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
@@ -6169,7 +6215,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>214</v>
       </c>
@@ -6189,7 +6235,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
@@ -6209,7 +6255,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>224</v>
       </c>
@@ -6227,7 +6273,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -6237,23 +6283,23 @@
       <c r="J31" s="11"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-    </row>
-    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
@@ -6285,7 +6331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>53</v>
       </c>
@@ -6313,7 +6359,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>228</v>
       </c>
@@ -6335,7 +6381,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>230</v>
       </c>
@@ -6357,7 +6403,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
         <v>232</v>
       </c>
@@ -6379,7 +6425,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
         <v>234</v>
       </c>
@@ -6399,7 +6445,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
@@ -6419,7 +6465,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="6" t="s">
         <v>224</v>
       </c>
@@ -6437,7 +6483,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
@@ -6449,23 +6495,23 @@
       <c r="J41" s="11"/>
       <c r="K41" s="18"/>
     </row>
-    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="46"/>
-    </row>
-    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
@@ -6497,7 +6543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
         <v>53</v>
       </c>
@@ -6525,7 +6571,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6" t="s">
         <v>230</v>
       </c>
@@ -6547,7 +6593,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="6" t="s">
         <v>228</v>
       </c>
@@ -6569,7 +6615,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="6" t="s">
         <v>232</v>
       </c>
@@ -6591,7 +6637,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="6" t="s">
         <v>234</v>
       </c>
@@ -6611,7 +6657,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
         <v>37</v>
       </c>
@@ -6631,7 +6677,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>224</v>
       </c>
@@ -6649,7 +6695,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
@@ -6661,7 +6707,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9" t="s">
         <v>242</v>
       </c>
@@ -6677,7 +6723,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
     </row>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
@@ -6709,7 +6755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
         <v>53</v>
       </c>
@@ -6737,7 +6783,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="6" t="s">
         <v>244</v>
       </c>
@@ -6759,7 +6805,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="6" t="s">
         <v>246</v>
       </c>
@@ -6781,7 +6827,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="6" t="s">
         <v>234</v>
       </c>
@@ -6801,7 +6847,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
         <v>37</v>
       </c>
